--- a/传感器/连续物位测量/角度变送器/迈安德物料定义-01属性表-外购设备-角度变送器.xlsx
+++ b/传感器/连续物位测量/角度变送器/迈安德物料定义-01属性表-外购设备-角度变送器.xlsx
@@ -884,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MountingType</t>
+          <t>TransmitterType</t>
         </is>
       </c>
       <c r="D6">
@@ -1135,8 +1135,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ATEX EX II 2G Ex ia IIC T6 Gb本安仪表</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>transmittertype1</t>
+        </is>
+      </c>
       <c r="H6" s="1">
         <f>CONCATENATE(A6," ",D6," ",E6," ","="," ","'",G6,"'",";")</f>
         <v/>
@@ -1173,12 +1181,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ATEX EX II 2G Ex ia IIC T6 Gb本安仪表</t>
+          <t>标准版(不防爆)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>transmittertype1</t>
+          <t>transmittertype2</t>
         </is>
       </c>
       <c r="H7" s="1">
@@ -1215,16 +1223,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>标准版(不防爆)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>transmittertype2</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" s="1">
         <f>CONCATENATE(A8," ",D8," ",E8," ","="," ","'",G8,"'",";")</f>
         <v/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TransmitterType</t>
+          <t>RotationDirection</t>
         </is>
       </c>
       <c r="D9">
@@ -1259,8 +1259,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>顺时针旋转校正</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>rotationdirection1</t>
+        </is>
+      </c>
       <c r="H9" s="1">
         <f>CONCATENATE(A9," ",D9," ",E9," ","="," ","'",G9,"'",";")</f>
         <v/>
@@ -1295,16 +1303,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>顺时针旋转校正</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>rotationdirection1</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" s="1">
         <f>CONCATENATE(A10," ",D10," ",E10," ","="," ","'",G10,"'",";")</f>
         <v/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RotationDirection</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="D11">
@@ -1339,8 +1339,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0~90°角度</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>range1</t>
+        </is>
+      </c>
       <c r="H11" s="1">
         <f>CONCATENATE(A11," ",D11," ",E11," ","="," ","'",G11,"'",";")</f>
         <v/>
@@ -1375,16 +1383,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0~90°角度</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>range1</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" s="1">
         <f>CONCATENATE(A12," ",D12," ",E12," ","="," ","'",G12,"'",";")</f>
         <v/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>OuputSignal</t>
         </is>
       </c>
       <c r="D13">
@@ -1419,8 +1419,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2线,4~20mA或3/4线0~20mA,带微调电位器</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ouputsignal1</t>
+        </is>
+      </c>
       <c r="H13" s="1">
         <f>CONCATENATE(A13," ",D13," ",E13," ","="," ","'",G13,"'",";")</f>
         <v/>
@@ -1455,16 +1463,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2线,4~20mA或3/4线0~20mA,带微调电位器</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ouputsignal1</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" s="1">
         <f>CONCATENATE(A14," ",D14," ",E14," ","="," ","'",G14,"'",";")</f>
         <v/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OuputSignal</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D15">
@@ -1499,8 +1499,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12~30 VDC(EX),无电隔离 </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>power1</t>
+        </is>
+      </c>
       <c r="H15" s="1">
         <f>CONCATENATE(A15," ",D15," ",E15," ","="," ","'",G15,"'",";")</f>
         <v/>
@@ -1537,12 +1545,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">12~30 VDC(EX),无电隔离 </t>
+          <t xml:space="preserve">12~30 VDC(非防爆选此),无电隔离 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>power1</t>
+          <t>power2</t>
         </is>
       </c>
       <c r="H16" s="1">
@@ -1579,16 +1587,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12~30 VDC(非防爆选此),无电隔离 </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>power2</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" s="1">
         <f>CONCATENATE(A17," ",D17," ",E17," ","="," ","'",G17,"'",";")</f>
         <v/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>JunctionBox</t>
         </is>
       </c>
       <c r="D18">
@@ -1623,8 +1623,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>金属,带2个PG11格兰头</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>junctionbox1</t>
+        </is>
+      </c>
       <c r="H18" s="1">
         <f>CONCATENATE(A18," ",D18," ",E18," ","="," ","'",G18,"'",";")</f>
         <v/>
@@ -1659,16 +1667,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>金属,带2个PG11格兰头</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>junctionbox1</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" s="1">
         <f>CONCATENATE(A19," ",D19," ",E19," ","="," ","'",G19,"'",";")</f>
         <v/>
@@ -1679,44 +1679,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>A308</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>JunctionBox</t>
-        </is>
-      </c>
-      <c r="D20">
-        <f>"my"&amp;B20&amp;"_"&amp;C20</f>
-        <v/>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" s="1">
-        <f>CONCATENATE(A20," ",D20," ",E20," ","="," ","'",G20,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I20" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D20,,".",G20," ="," ",F20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="H21" s="1" t="n"/>
-      <c r="I21" s="2" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/传感器/连续物位测量/角度变送器/迈安德物料定义-01属性表-外购设备-角度变送器.xlsx
+++ b/传感器/连续物位测量/角度变送器/迈安德物料定义-01属性表-外购设备-角度变送器.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="H2" s="1">
